--- a/biology/Botanique/Frêne_élevé/Frêne_élevé.xlsx
+++ b/biology/Botanique/Frêne_élevé/Frêne_élevé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne_%C3%A9lev%C3%A9</t>
+          <t>Frêne_élevé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fraxinus excelsior · Frêne commun
 Le Frêne commun ou Frêne élevé (Fraxinus excelsior L., 1753) est une espèce de plantes à fleurs de la famille des Oléacées. C'est un arbre commun des forêts d'Europe, à bois clair, dur et élastique,
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne_%C3%A9lev%C3%A9</t>
+          <t>Frêne_élevé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Noms français</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires, vulgarisés ou normalisés suivants : frêne[1],[2], frêne commun[1],[2],[3],[4], frêne d'Europe[1],[2], frêne élevé[2],[3],[4], frêne à feuilles aiguës[4], gaïac des Allemands[4], grand frêne[4], langue d'oiseau[4] et quinquina d'Europe[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires, vulgarisés ou normalisés suivants : frêne frêne commun frêne d'Europe frêne élevé frêne à feuilles aiguës, gaïac des Allemands, grand frêne, langue d'oiseau et quinquina d'Europe,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne_%C3%A9lev%C3%A9</t>
+          <t>Frêne_élevé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,15 +559,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Le Frêne élevé est un grand arbre pouvant vivre de 150 à 200 ans[5], et pouvant atteindre de 20 à 45 mètres de hauteur selon le milieu[6],[7]. Le tronc est droit, élancé[5], et peut atteindre de 1,6 à 1,8 mètre de diamètre[7]. L'écorce est lisse et grisâtre, se crevassant avec l'âge. Les individus femelles sont généralement un peu plus petits et possèdent un tronc plus fin que les pieds mâles[7]. Le bois est assez dur, tenace, élastique, couleur blanc nacré, sans aubier distinct.
-Le feuillage est décidu. Les feuilles sont opposées, composées imparipennées et dépourvues de stipules[7]. Elles mesurent jusqu'à 30 centimètres de long et sont constituées de 7 à 15 folioles dentées, glabres[7],[5]. Il existe cependant des individus à feuilles entières ou à 3 folioles seulement.
-Les bourgeons terminaux mesurent de 5 à 10 mm de long[7]. Ils sont de forme pyramidale, glabres et d'un noir velouté[8].
-Appareil reproducteur
-Le Frêne élevé est trioïque ou sub-dioïque : les pieds sont soit mâles, soit femelles soit hermaphrodites[7]. Les inflorescence sont des panicules axillaires courtes, comportant plus de 100 fleurs chacune.
-Les fleurs sont dépourvues de périanthe, de couleur violacée (femelles) à noirâtre (mâles). Les fleurs hermaphrodites comportent deux étamines et un carpelle à stigmate bifide. Chez les individus mâles l'ovaire est avorté, tandis que chez les individus femelles les étamines sont avortées[7].
-La floraison a lieu de février à avril, avant le débourrement du feuillage[5]. La pollinisation est anémogame. La production abondante de pollen peut être une cause d'allergie.
-Les fruits sont des samares aplaties, munies d'une aile membraneuse allongée, mesurant de 3 à 4 cm de long[7]. Comme pour toutes les samares, la dissémination des fruits se fait en partie par l'action du vent.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Frêne élevé est un grand arbre pouvant vivre de 150 à 200 ans, et pouvant atteindre de 20 à 45 mètres de hauteur selon le milieu,. Le tronc est droit, élancé, et peut atteindre de 1,6 à 1,8 mètre de diamètre. L'écorce est lisse et grisâtre, se crevassant avec l'âge. Les individus femelles sont généralement un peu plus petits et possèdent un tronc plus fin que les pieds mâles. Le bois est assez dur, tenace, élastique, couleur blanc nacré, sans aubier distinct.
+Le feuillage est décidu. Les feuilles sont opposées, composées imparipennées et dépourvues de stipules. Elles mesurent jusqu'à 30 centimètres de long et sont constituées de 7 à 15 folioles dentées, glabres,. Il existe cependant des individus à feuilles entières ou à 3 folioles seulement.
+Les bourgeons terminaux mesurent de 5 à 10 mm de long. Ils sont de forme pyramidale, glabres et d'un noir velouté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frêne_élevé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%AAne_%C3%A9lev%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Frêne élevé est trioïque ou sub-dioïque : les pieds sont soit mâles, soit femelles soit hermaphrodites. Les inflorescence sont des panicules axillaires courtes, comportant plus de 100 fleurs chacune.
+Les fleurs sont dépourvues de périanthe, de couleur violacée (femelles) à noirâtre (mâles). Les fleurs hermaphrodites comportent deux étamines et un carpelle à stigmate bifide. Chez les individus mâles l'ovaire est avorté, tandis que chez les individus femelles les étamines sont avortées.
+La floraison a lieu de février à avril, avant le débourrement du feuillage. La pollinisation est anémogame. La production abondante de pollen peut être une cause d'allergie.
+Les fruits sont des samares aplaties, munies d'une aile membraneuse allongée, mesurant de 3 à 4 cm de long. Comme pour toutes les samares, la dissémination des fruits se fait en partie par l'action du vent.
 </t>
         </is>
       </c>
